--- a/data/categorial_size_experiment/results/A_1000_cs results archi.xlsx
+++ b/data/categorial_size_experiment/results/A_1000_cs results archi.xlsx
@@ -374,7 +374,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="3">
@@ -382,7 +382,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.888</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="4">
@@ -398,7 +398,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.957</v>
+        <v>0.956</v>
       </c>
     </row>
   </sheetData>
